--- a/Code/Results/Cases/Case_5_39/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_5_39/line/parallel.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,25 +439,31 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,25 +486,31 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,25 +533,31 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,25 +580,31 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,25 +627,31 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -638,25 +674,31 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,25 +721,31 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,25 +768,31 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,25 +815,31 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,25 +862,31 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,25 +909,31 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,25 +956,31 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,25 +1003,31 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,25 +1050,31 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,25 +1097,31 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,25 +1144,31 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,25 +1191,31 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,25 +1238,31 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,25 +1285,31 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,25 +1332,31 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,25 +1379,31 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,25 +1426,31 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,25 +1473,31 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,21 +1520,27 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_39/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_5_39/line/parallel.xlsx
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1059,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_5_39/line/parallel.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,28 +448,34 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -489,28 +501,34 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,28 +554,34 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -583,28 +607,34 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,28 +660,34 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -677,28 +713,34 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -724,28 +766,34 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -771,28 +819,34 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -818,28 +872,34 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -865,28 +925,34 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -912,28 +978,34 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -959,28 +1031,34 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1006,28 +1084,34 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1053,28 +1137,34 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1100,28 +1190,34 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1147,28 +1243,34 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>2</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>2</v>
       </c>
       <c r="O17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1194,28 +1296,34 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1241,28 +1349,34 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>2</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="O19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1288,28 +1402,34 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>2</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1335,28 +1455,34 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>2</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1382,28 +1508,34 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1429,28 +1561,34 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1476,28 +1614,34 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>2</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1523,24 +1667,30 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
         <v>2</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_39/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_5_39/line/parallel.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -457,25 +463,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,25 +522,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -563,25 +581,31 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -616,25 +640,31 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -669,25 +699,31 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -722,25 +758,31 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -775,25 +817,31 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -828,25 +876,31 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>2</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -881,25 +935,31 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -934,25 +994,31 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>2</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -987,25 +1053,31 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
       <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1040,25 +1112,31 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>2</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1093,25 +1171,31 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1146,25 +1230,31 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1199,25 +1289,31 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1252,25 +1348,31 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>2</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1305,25 +1407,31 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <v>2</v>
       </c>
       <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1358,25 +1466,31 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>2</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
       <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1411,25 +1525,31 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1464,25 +1584,31 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1517,25 +1643,31 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>2</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>2</v>
       </c>
       <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1570,25 +1702,31 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>2</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1623,25 +1761,31 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
       <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1676,21 +1820,27 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>2</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
         <v>2</v>
       </c>
     </row>
